--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2946.xlsx
@@ -354,7 +354,7 @@
         <v>2.639950692003031</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.265775024621983</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2946.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098669355542371</v>
+        <v>1.169743299484253</v>
       </c>
       <c r="B1">
-        <v>2.639950692003031</v>
+        <v>0.941416323184967</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.166744232177734</v>
       </c>
       <c r="D1">
-        <v>2.265775024621983</v>
+        <v>3.166005611419678</v>
       </c>
       <c r="E1">
-        <v>1.299009435974154</v>
+        <v>0.9354562759399414</v>
       </c>
     </row>
   </sheetData>
